--- a/URS/DbLayouts/L2-業務作業/ClLand.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ClLand.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="7812"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -553,10 +553,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">LandLocation = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ClCode1 Asc ,ClCode2 Asc ,ClNo Asc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -575,6 +571,10 @@
   <si>
     <t>土地序號</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CityCode = ,AND AreaCode = ,AND IrCode = ,AND LandNo1 = ,AND LandNo2 = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1104,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1304,7 @@
         <v>102</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>83</v>
@@ -2125,15 +2125,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="99.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="42.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -2173,7 +2173,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -2189,21 +2189,21 @@
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
